--- a/Data/EC/NIT-9002733801.xlsx
+++ b/Data/EC/NIT-9002733801.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E505202-8F88-4FAE-AE79-B21DDEA7FC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04C8F5B-C33C-4579-B766-81120D5B37D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5320568B-8270-4BBF-9C34-10062B256E2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8536D37D-C4F2-4FB2-BF4F-4ED371B8F9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="45">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,76 +65,79 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143350424</t>
+  </si>
+  <si>
+    <t>YESSICA PAOLA PATERNINA BLANCO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1047440210</t>
+  </si>
+  <si>
+    <t>DARWIN POVEDA TORRES</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>1043636934</t>
   </si>
   <si>
     <t>ESTEBAN LEONARD SANCHEZ BATISTA</t>
   </si>
   <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>1047440210</t>
-  </si>
-  <si>
-    <t>DARWIN POVEDA TORRES</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
   </si>
   <si>
     <t>2407</t>
   </si>
   <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
     <t>1043842870</t>
   </si>
   <si>
     <t>VANESSA CAROLINA CALVO CABALLERO</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>1143350424</t>
-  </si>
-  <si>
-    <t>YESSICA PAOLA PATERNINA BLANCO</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7626AF-0EC4-676F-FCA6-0DF2CB2D61B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645B28DA-F099-08BC-7342-5F66BB9A4F6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,8 +902,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119FBA27-8C97-4050-9C03-4086238D493A}">
-  <dimension ref="B2:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82880828-5A68-4478-8B80-5DE3E0E1EF63}">
+  <dimension ref="B2:J55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -924,7 +927,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -969,7 +972,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1001,12 +1004,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1717023</v>
+        <v>1826155</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1017,17 +1020,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1054,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1077,10 +1080,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>49110</v>
+        <v>54566</v>
       </c>
       <c r="G16" s="18">
-        <v>1364160</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1091,19 +1094,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>49110</v>
+        <v>54566</v>
       </c>
       <c r="G17" s="18">
-        <v>1364160</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,19 +1117,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
         <v>54566</v>
       </c>
       <c r="G18" s="18">
-        <v>1364160</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1149,7 +1152,7 @@
         <v>54566</v>
       </c>
       <c r="G19" s="18">
-        <v>1364160</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1172,7 +1175,7 @@
         <v>54566</v>
       </c>
       <c r="G20" s="18">
-        <v>1364160</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1183,19 +1186,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>54566</v>
       </c>
       <c r="G21" s="18">
-        <v>1364160</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1212,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>54566</v>
       </c>
       <c r="G22" s="18">
-        <v>1364160</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1229,19 +1232,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>54566</v>
+        <v>27283</v>
       </c>
       <c r="G23" s="18">
-        <v>1364160</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1252,13 +1255,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>54566</v>
@@ -1275,13 +1278,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>54566</v>
@@ -1298,13 +1301,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>54566</v>
@@ -1321,16 +1324,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>54566</v>
+        <v>49110</v>
       </c>
       <c r="G27" s="18">
         <v>1364160</v>
@@ -1344,13 +1347,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>54566</v>
@@ -1367,19 +1370,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
-        <v>25844</v>
+        <v>54566</v>
       </c>
       <c r="G29" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1390,19 +1393,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
-        <v>70484</v>
+        <v>54566</v>
       </c>
       <c r="G30" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1419,10 +1422,10 @@
         <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
-        <v>27283</v>
+        <v>54566</v>
       </c>
       <c r="G31" s="18">
         <v>1364160</v>
@@ -1436,13 +1439,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
         <v>54566</v>
@@ -1459,19 +1462,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F33" s="18">
-        <v>70484</v>
+        <v>54566</v>
       </c>
       <c r="G33" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1488,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F34" s="18">
         <v>54566</v>
@@ -1505,13 +1508,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F35" s="18">
         <v>54566</v>
@@ -1528,13 +1531,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>54566</v>
@@ -1574,19 +1577,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
-        <v>70484</v>
+        <v>54566</v>
       </c>
       <c r="G38" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1597,13 +1600,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
         <v>54566</v>
@@ -1620,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
-        <v>44640</v>
+        <v>54566</v>
       </c>
       <c r="G40" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1649,7 +1652,7 @@
         <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F41" s="18">
         <v>54566</v>
@@ -1666,13 +1669,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F42" s="18">
         <v>54566</v>
@@ -1695,7 +1698,7 @@
         <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18">
         <v>54566</v>
@@ -1712,16 +1715,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>54566</v>
+        <v>49110</v>
       </c>
       <c r="G44" s="18">
         <v>1364160</v>
@@ -1735,19 +1738,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F45" s="18">
-        <v>54566</v>
+        <v>44640</v>
       </c>
       <c r="G45" s="18">
-        <v>1364160</v>
+        <v>1762105</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1758,75 +1761,121 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
-        <v>54566</v>
+        <v>70484</v>
       </c>
       <c r="G46" s="18">
-        <v>1364160</v>
+        <v>1762105</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="24">
-        <v>54566</v>
-      </c>
-      <c r="G47" s="24">
-        <v>1364160</v>
-      </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="32" t="s">
+      <c r="D47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="18">
+        <v>70484</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1762105</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="18">
+        <v>70484</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1762105</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="24">
+        <v>25844</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1762105</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="H52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="H53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002733801.xlsx
+++ b/Data/EC/NIT-9002733801.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04C8F5B-C33C-4579-B766-81120D5B37D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27BBC63-D166-47F6-AC3D-EE08ECEAF872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8536D37D-C4F2-4FB2-BF4F-4ED371B8F9C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D1AB7B5-7EBC-480A-B9E0-C40D9022EC91}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,79 +65,82 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047440210</t>
+  </si>
+  <si>
+    <t>DARWIN POVEDA TORRES</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>1043636934</t>
+  </si>
+  <si>
+    <t>ESTEBAN LEONARD SANCHEZ BATISTA</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1043842870</t>
+  </si>
+  <si>
+    <t>VANESSA CAROLINA CALVO CABALLERO</t>
+  </si>
+  <si>
     <t>1143350424</t>
   </si>
   <si>
     <t>YESSICA PAOLA PATERNINA BLANCO</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>1047440210</t>
-  </si>
-  <si>
-    <t>DARWIN POVEDA TORRES</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>1043636934</t>
-  </si>
-  <si>
-    <t>ESTEBAN LEONARD SANCHEZ BATISTA</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1043842870</t>
-  </si>
-  <si>
-    <t>VANESSA CAROLINA CALVO CABALLERO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -236,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645B28DA-F099-08BC-7342-5F66BB9A4F6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60917C6A-FCC9-32D8-1B92-23F1D4BF18A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82880828-5A68-4478-8B80-5DE3E0E1EF63}">
-  <dimension ref="B2:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD10FE9A-C302-45BF-9EA4-17C3EBF4A435}">
+  <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -927,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -972,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1004,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1826155</v>
+        <v>1935287</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1020,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1057,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1080,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>54566</v>
+        <v>49110</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1364160</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1094,19 +1097,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>54566</v>
+        <v>49110</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1364160</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1123,13 +1126,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>54566</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1364160</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1140,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1152,7 +1155,7 @@
         <v>54566</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1364160</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1175,7 +1178,7 @@
         <v>54566</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1364160</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1186,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>54566</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1364160</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1215,13 +1218,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>54566</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1364160</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1232,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>27283</v>
+        <v>54566</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1364160</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1255,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>54566</v>
@@ -1278,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
         <v>54566</v>
@@ -1301,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>54566</v>
@@ -1324,16 +1327,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F27" s="18">
-        <v>49110</v>
+        <v>54566</v>
       </c>
       <c r="G27" s="18">
         <v>1364160</v>
@@ -1347,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>54566</v>
@@ -1370,19 +1373,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>54566</v>
+        <v>25844</v>
       </c>
       <c r="G29" s="18">
-        <v>1364160</v>
+        <v>1762105</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1393,16 +1396,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F30" s="18">
-        <v>54566</v>
+        <v>27283</v>
       </c>
       <c r="G30" s="18">
         <v>1364160</v>
@@ -1416,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F31" s="18">
         <v>54566</v>
@@ -1439,19 +1442,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F32" s="18">
-        <v>54566</v>
+        <v>70484</v>
       </c>
       <c r="G32" s="18">
-        <v>1364160</v>
+        <v>1762105</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1462,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
         <v>54566</v>
@@ -1485,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>54566</v>
@@ -1508,19 +1511,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
-        <v>54566</v>
+        <v>70484</v>
       </c>
       <c r="G35" s="18">
-        <v>1364160</v>
+        <v>1762105</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1531,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
         <v>54566</v>
@@ -1554,10 +1557,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
@@ -1577,19 +1580,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>54566</v>
+        <v>70484</v>
       </c>
       <c r="G38" s="18">
-        <v>1364160</v>
+        <v>1762105</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1600,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
         <v>54566</v>
@@ -1623,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
         <v>54566</v>
@@ -1646,19 +1649,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
-        <v>54566</v>
+        <v>44640</v>
       </c>
       <c r="G41" s="18">
-        <v>1364160</v>
+        <v>1762105</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1669,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E42" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F42" s="18">
         <v>54566</v>
@@ -1692,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
         <v>54566</v>
@@ -1715,16 +1718,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F44" s="18">
-        <v>49110</v>
+        <v>54566</v>
       </c>
       <c r="G44" s="18">
         <v>1364160</v>
@@ -1738,19 +1741,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F45" s="18">
-        <v>44640</v>
+        <v>54566</v>
       </c>
       <c r="G45" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1761,19 +1764,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F46" s="18">
-        <v>70484</v>
+        <v>54566</v>
       </c>
       <c r="G46" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1784,19 +1787,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F47" s="18">
-        <v>70484</v>
+        <v>54566</v>
       </c>
       <c r="G47" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1807,75 +1810,121 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F48" s="18">
-        <v>70484</v>
+        <v>54566</v>
       </c>
       <c r="G48" s="18">
-        <v>1762105</v>
+        <v>1364160</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="23" t="s">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="24">
-        <v>25844</v>
-      </c>
-      <c r="G49" s="24">
-        <v>1762105</v>
-      </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
+      <c r="F49" s="18">
+        <v>54566</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1364160</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="18">
+        <v>54566</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1364160</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="24">
+        <v>54566</v>
+      </c>
+      <c r="G51" s="24">
+        <v>1364160</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="H56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="C57" s="32"/>
+      <c r="H57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H56:J56"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
